--- a/test_youtube/done/groundtruth/face6_02_Babyjingko.xlsx
+++ b/test_youtube/done/groundtruth/face6_02_Babyjingko.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\done\groundtruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1CE39-18C8-44A5-94A9-46E14D65A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1193045-C3F9-4D1D-BD1C-944016AABB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
